--- a/src/test/resources/temp.xlsx
+++ b/src/test/resources/temp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jipengfei/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new-b2b\easyexcel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3938DFD-172F-7540-8469-B07F2167F189}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16116" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一个sheet" sheetId="1" r:id="rId1"/>
@@ -126,8 +125,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -170,6 +169,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -185,16 +190,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -213,32 +219,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -554,21 +584,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="156.1640625" customWidth="1"/>
+    <col min="2" max="2" width="156.109375" customWidth="1"/>
     <col min="3" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -585,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -602,7 +632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18">
+    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -619,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -657,140 +687,140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8835" sqref="A5:XFD8835"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="29">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:10" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="87">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" ht="84.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
         <v>33</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9">
         <v>44</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <v>4545456563434340</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="9">
         <v>1111.77</v>
       </c>
     </row>
@@ -810,67 +840,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -896,35 +926,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="87">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" ht="84.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>10027</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>44</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>4.5454565634343501E+18</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>11105.77</v>
       </c>
     </row>
@@ -936,5 +966,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>